--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>БЕЗ НДС</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Нур-Султан</t>
-  </si>
-  <si>
-    <t>119/134 после 10</t>
   </si>
   <si>
     <t>Доставка</t>
@@ -624,23 +621,23 @@
       <c r="D5" s="10">
         <v>888.0</v>
       </c>
-      <c r="E5" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>133.0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>174.0</v>
+      <c r="E5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>150.0</v>
       </c>
       <c r="K5" s="9">
         <v>10.0</v>
@@ -667,23 +664,23 @@
       <c r="D6" s="10">
         <v>777.0</v>
       </c>
-      <c r="E6" s="9">
-        <v>0.0</v>
+      <c r="E6" s="10">
+        <v>2.0</v>
       </c>
       <c r="F6" s="9">
         <v>2.0</v>
       </c>
-      <c r="G6" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>158.0</v>
+      <c r="G6" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>21.0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>150.0</v>
       </c>
       <c r="K6" s="9">
         <v>10.0</v>
@@ -705,28 +702,28 @@
         <v>16</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="12">
         <v>777.0</v>
       </c>
-      <c r="E7" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>16.0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>84.0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>26.0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>168.0</v>
+      <c r="E7" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>70.0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>150.0</v>
       </c>
       <c r="K7" s="11">
         <v>10.0</v>
@@ -737,8 +734,8 @@
       <c r="M7" s="11">
         <v>240.0</v>
       </c>
-      <c r="N7" s="11">
-        <v>420.0</v>
+      <c r="N7" s="12">
+        <v>0.0</v>
       </c>
       <c r="O7" s="1"/>
     </row>
@@ -748,28 +745,28 @@
         <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="12">
         <v>555.0</v>
       </c>
-      <c r="E8" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>21.0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>63.0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>32.0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>134.0</v>
+      <c r="E8" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>50.0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>24.0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>150.0</v>
       </c>
       <c r="K8" s="11">
         <v>10.0</v>
@@ -780,39 +777,39 @@
       <c r="M8" s="11">
         <v>225.0</v>
       </c>
-      <c r="N8" s="11">
-        <v>395.0</v>
+      <c r="N8" s="12">
+        <v>0.0</v>
       </c>
       <c r="O8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12">
         <v>666.0</v>
       </c>
-      <c r="E9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>106.0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>120.0</v>
+      <c r="E9" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>60.0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>150.0</v>
       </c>
       <c r="K9" s="11">
         <v>10.0</v>
@@ -823,39 +820,39 @@
       <c r="M9" s="11">
         <v>135.0</v>
       </c>
-      <c r="N9" s="11">
-        <v>160.0</v>
+      <c r="N9" s="12">
+        <v>0.0</v>
       </c>
       <c r="O9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="12">
         <v>888.0</v>
       </c>
-      <c r="E10" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>77.0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>130.0</v>
+      <c r="E10" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>70.0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>26.0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>150.0</v>
       </c>
       <c r="K10" s="11">
         <v>10.0</v>
@@ -866,17 +863,17 @@
       <c r="M10" s="11">
         <v>130.0</v>
       </c>
-      <c r="N10" s="11">
-        <v>180.0</v>
+      <c r="N10" s="12">
+        <v>0.0</v>
       </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11">
       <c r="B11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="10">
         <v>999.0</v>
@@ -890,14 +887,14 @@
       <c r="G11" s="9">
         <v>10.0</v>
       </c>
-      <c r="H11" s="9">
-        <v>72.0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>120.0</v>
+      <c r="H11" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>27.0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>150.0</v>
       </c>
       <c r="K11" s="9">
         <v>10.0</v>
@@ -908,38 +905,38 @@
       <c r="M11" s="9">
         <v>145.0</v>
       </c>
-      <c r="N11" s="9">
-        <v>180.0</v>
+      <c r="N11" s="10">
+        <v>0.0</v>
       </c>
       <c r="O11" s="1"/>
     </row>
     <row r="12">
       <c r="B12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="10">
         <v>999.0</v>
       </c>
-      <c r="E12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>62.0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>123.0</v>
+      <c r="E12" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>28.0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>150.0</v>
       </c>
       <c r="K12" s="9">
         <v>10.0</v>
@@ -950,38 +947,38 @@
       <c r="M12" s="9">
         <v>155.0</v>
       </c>
-      <c r="N12" s="9">
-        <v>235.0</v>
+      <c r="N12" s="10">
+        <v>0.0</v>
       </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13">
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="10">
         <v>999.0</v>
       </c>
-      <c r="E13" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>80.0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>115.0</v>
+      <c r="E13" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>70.0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>29.0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>150.0</v>
       </c>
       <c r="K13" s="9">
         <v>10.0</v>
@@ -992,38 +989,38 @@
       <c r="M13" s="9">
         <v>115.0</v>
       </c>
-      <c r="N13" s="9">
-        <v>175.0</v>
+      <c r="N13" s="10">
+        <v>0.0</v>
       </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14">
       <c r="B14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="10">
         <v>999.0</v>
       </c>
-      <c r="E14" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>56.0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>123.0</v>
+      <c r="E14" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>150.0</v>
       </c>
       <c r="K14" s="9">
         <v>10.0</v>
@@ -1034,38 +1031,38 @@
       <c r="M14" s="9">
         <v>115.0</v>
       </c>
-      <c r="N14" s="9">
-        <v>170.0</v>
+      <c r="N14" s="10">
+        <v>0.0</v>
       </c>
       <c r="O14" s="1"/>
     </row>
     <row r="15">
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="10">
         <v>990.0</v>
       </c>
-      <c r="E15" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>59.0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>117.0</v>
+      <c r="E15" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>31.0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>150.0</v>
       </c>
       <c r="K15" s="9">
         <v>10.0</v>
@@ -1076,38 +1073,38 @@
       <c r="M15" s="9">
         <v>130.0</v>
       </c>
-      <c r="N15" s="9">
-        <v>175.0</v>
+      <c r="N15" s="10">
+        <v>0.0</v>
       </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16">
       <c r="B16" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="10">
         <v>1212.0</v>
       </c>
-      <c r="E16" s="9">
-        <v>0.0</v>
+      <c r="E16" s="10">
+        <v>2.0</v>
       </c>
       <c r="F16" s="9">
         <v>2.0</v>
       </c>
-      <c r="G16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>57.0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>169.0</v>
+      <c r="G16" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>70.0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>32.0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>150.0</v>
       </c>
       <c r="K16" s="9">
         <v>10.0</v>
@@ -1118,17 +1115,17 @@
       <c r="M16" s="9">
         <v>115.0</v>
       </c>
-      <c r="N16" s="9">
-        <v>170.0</v>
+      <c r="N16" s="10">
+        <v>0.0</v>
       </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17">
       <c r="B17" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="10">
         <v>1212.0</v>
@@ -1136,20 +1133,20 @@
       <c r="E17" s="9">
         <v>3.0</v>
       </c>
-      <c r="F17" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>55.0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>88.0</v>
+      <c r="F17" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>150.0</v>
       </c>
       <c r="K17" s="9">
         <v>10.0</v>
@@ -1160,38 +1157,38 @@
       <c r="M17" s="9">
         <v>110.0</v>
       </c>
-      <c r="N17" s="9">
-        <v>135.0</v>
+      <c r="N17" s="10">
+        <v>0.0</v>
       </c>
       <c r="O17" s="1"/>
     </row>
     <row r="18">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="10">
         <v>333.0</v>
       </c>
-      <c r="E18" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>66.0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>108.0</v>
+      <c r="E18" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="J18" s="10">
+        <v>150.0</v>
       </c>
       <c r="K18" s="9">
         <v>10.0</v>
@@ -1202,38 +1199,38 @@
       <c r="M18" s="9">
         <v>120.0</v>
       </c>
-      <c r="N18" s="9">
-        <v>180.0</v>
+      <c r="N18" s="10">
+        <v>0.0</v>
       </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19">
       <c r="B19" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="10">
         <v>444.0</v>
       </c>
-      <c r="E19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>82.0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>113.0</v>
+      <c r="E19" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>70.0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>35.0</v>
+      </c>
+      <c r="J19" s="10">
+        <v>150.0</v>
       </c>
       <c r="K19" s="9">
         <v>10.0</v>
@@ -1244,38 +1241,38 @@
       <c r="M19" s="9">
         <v>125.0</v>
       </c>
-      <c r="N19" s="9">
-        <v>250.0</v>
+      <c r="N19" s="10">
+        <v>0.0</v>
       </c>
       <c r="O19" s="1"/>
     </row>
     <row r="20">
       <c r="B20" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="10">
         <v>555.0</v>
       </c>
-      <c r="E20" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>64.0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>128.0</v>
+      <c r="E20" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>36.0</v>
+      </c>
+      <c r="J20" s="10">
+        <v>150.0</v>
       </c>
       <c r="K20" s="9">
         <v>10.0</v>
@@ -1286,38 +1283,38 @@
       <c r="M20" s="9">
         <v>120.0</v>
       </c>
-      <c r="N20" s="9">
-        <v>175.0</v>
+      <c r="N20" s="10">
+        <v>0.0</v>
       </c>
       <c r="O20" s="1"/>
     </row>
     <row r="21">
       <c r="B21" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="10">
         <v>777.0</v>
       </c>
-      <c r="E21" s="9">
-        <v>0.0</v>
+      <c r="E21" s="10">
+        <v>2.0</v>
       </c>
       <c r="F21" s="9">
         <v>2.0</v>
       </c>
-      <c r="G21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>52.0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>93.0</v>
+      <c r="G21" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>37.0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>150.0</v>
       </c>
       <c r="K21" s="9">
         <v>10.0</v>
@@ -1328,38 +1325,38 @@
       <c r="M21" s="9">
         <v>105.0</v>
       </c>
-      <c r="N21" s="9">
-        <v>155.0</v>
+      <c r="N21" s="10">
+        <v>0.0</v>
       </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22">
       <c r="B22" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="10">
         <v>555.0</v>
       </c>
-      <c r="E22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>65.0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>129.0</v>
+      <c r="E22" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>70.0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>38.0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>150.0</v>
       </c>
       <c r="K22" s="9">
         <v>10.0</v>
@@ -1370,38 +1367,38 @@
       <c r="M22" s="9">
         <v>120.0</v>
       </c>
-      <c r="N22" s="9">
-        <v>180.0</v>
+      <c r="N22" s="10">
+        <v>0.0</v>
       </c>
       <c r="O22" s="1"/>
     </row>
     <row r="23">
       <c r="B23" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="10">
         <v>999.0</v>
       </c>
-      <c r="E23" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>54.0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>132.0</v>
+      <c r="E23" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="I23" s="10">
+        <v>39.0</v>
+      </c>
+      <c r="J23" s="10">
+        <v>150.0</v>
       </c>
       <c r="K23" s="9">
         <v>10.0</v>
@@ -1412,38 +1409,38 @@
       <c r="M23" s="9">
         <v>120.0</v>
       </c>
-      <c r="N23" s="9">
-        <v>180.0</v>
+      <c r="N23" s="10">
+        <v>0.0</v>
       </c>
       <c r="O23" s="1"/>
     </row>
     <row r="24">
       <c r="B24" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="10">
         <v>777.0</v>
       </c>
-      <c r="E24" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>13.0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>77.0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>13.0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>154.0</v>
+      <c r="E24" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>40.0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>150.0</v>
       </c>
       <c r="K24" s="9">
         <v>10.0</v>
@@ -1454,38 +1451,38 @@
       <c r="M24" s="9">
         <v>130.0</v>
       </c>
-      <c r="N24" s="9">
-        <v>195.0</v>
+      <c r="N24" s="10">
+        <v>0.0</v>
       </c>
       <c r="O24" s="1"/>
     </row>
     <row r="25">
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="10">
         <v>666.0</v>
       </c>
-      <c r="E25" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="F25" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>51.0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>90.0</v>
+      <c r="E25" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>70.0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>41.0</v>
+      </c>
+      <c r="J25" s="10">
+        <v>150.0</v>
       </c>
       <c r="K25" s="9">
         <v>10.0</v>
@@ -1496,38 +1493,38 @@
       <c r="M25" s="9">
         <v>115.0</v>
       </c>
-      <c r="N25" s="9">
-        <v>170.0</v>
+      <c r="N25" s="10">
+        <v>0.0</v>
       </c>
       <c r="O25" s="1"/>
     </row>
     <row r="26">
       <c r="B26" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="10">
         <v>666.0</v>
       </c>
-      <c r="E26" s="9">
-        <v>0.0</v>
+      <c r="E26" s="10">
+        <v>2.0</v>
       </c>
       <c r="F26" s="9">
         <v>2.0</v>
       </c>
-      <c r="G26" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>62.0</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="9">
-        <v>113.0</v>
+      <c r="G26" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>42.0</v>
+      </c>
+      <c r="J26" s="10">
+        <v>150.0</v>
       </c>
       <c r="K26" s="9">
         <v>10.0</v>
@@ -1538,8 +1535,8 @@
       <c r="M26" s="9">
         <v>105.0</v>
       </c>
-      <c r="N26" s="9">
-        <v>155.0</v>
+      <c r="N26" s="10">
+        <v>0.0</v>
       </c>
       <c r="O26" s="1"/>
     </row>
